--- a/como como.xlsx
+++ b/como como.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcervigni\Desktop\diplomatura big data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcervigni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F726DE-06F7-4044-9C54-3C85882D0826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C50540-4ECD-4634-8F3E-7A58D80D6109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3007A3ED-273F-4603-81C2-3881B983868E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
   <si>
     <t>Fecha</t>
   </si>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B249E692-434E-42DD-A369-64BD1409A426}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,38 +1447,56 @@
       <c r="A29" s="1">
         <v>44068</v>
       </c>
+      <c r="B29" s="2">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.93472222222222223</v>
+      </c>
       <c r="D29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
         <v>35</v>
       </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44069</v>
       </c>
+      <c r="B30" s="2">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.55347222222222225</v>
+      </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
         <v>35</v>
       </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
       <c r="G30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1488,31 +1506,40 @@
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44069</v>
       </c>
+      <c r="B31" s="2">
+        <v>0.9159722222222223</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.92638888888888893</v>
+      </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
         <v>35</v>
       </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
         <v>32</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
